--- a/gitexcel.xlsx
+++ b/gitexcel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Programming\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5ABC742-69CC-4CE5-B2A4-C09CB7CEF646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62EB51E-8AAD-4FDD-869A-5D8DE0F72E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2592" yWindow="2592" windowWidth="18031" windowHeight="9391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">ada </t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>thursaday</t>
+  </si>
+  <si>
+    <t>new www</t>
   </si>
 </sst>
 </file>
@@ -375,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -428,6 +431,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gitexcel.xlsx
+++ b/gitexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Programming\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62EB51E-8AAD-4FDD-869A-5D8DE0F72E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAAA77F-C22F-47E9-AE96-B05B435D7848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2592" yWindow="2592" windowWidth="18031" windowHeight="9391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">ada </t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>new www</t>
+  </si>
+  <si>
+    <t>untrack</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -431,6 +434,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>

--- a/gitexcel.xlsx
+++ b/gitexcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Programming\Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAAA77F-C22F-47E9-AE96-B05B435D7848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3066DC65-514B-4BD9-8761-42A5EACA51D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2592" yWindow="2592" windowWidth="18031" windowHeight="9391" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2282" yWindow="2282" windowWidth="19563" windowHeight="10257" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">ada </t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>untrack</t>
+  </si>
+  <si>
+    <t>new change 19-09</t>
   </si>
 </sst>
 </file>
@@ -384,12 +387,12 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -405,7 +408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -413,7 +416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -421,7 +424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -429,17 +432,22 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>11</v>
       </c>
